--- a/Tester/Auto_Test/Playwight_Typescript/NoteCode.xlsx
+++ b/Tester/Auto_Test/Playwight_Typescript/NoteCode.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Tien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Tien\Desktop\EXP_TESTER\Tester\Auto_Test\Playwight_Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74AD81A-BE65-46E9-8CA3-2F7DE8355CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACF1C6-C46C-4878-AE9E-B0C047055142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2A16BFB8-B221-4819-BA1C-9DA8823D0DD2}"/>
+    <workbookView xWindow="14400" yWindow="75" windowWidth="14370" windowHeight="10905" activeTab="3" xr2:uid="{2A16BFB8-B221-4819-BA1C-9DA8823D0DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Câu Lệnh" sheetId="1" r:id="rId1"/>
     <sheet name="Git" sheetId="2" r:id="rId2"/>
     <sheet name="Chú Ý" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -725,6 +726,34 @@
     <t>Biến hoặc đối tượng đã được khởi tạo nhưng:
  + Không chứa dữ liệu.
  + Chứa dữ liệu rỗng.</t>
+  </si>
+  <si>
+    <t>Iframe</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>1. Đây là 1 thẻ HTML dùng để nhúng nội dung từ trang web khác vào trang web của bạn.
+2. Nó giống như 1 cửa sổ nhỏ hiển thị nội dung từ nguồn khác mà không cần rời khỏi trang web</t>
+  </si>
+  <si>
+    <t>Hàm (function)</t>
+  </si>
+  <si>
+    <t>1. Nó 1 khối lệnh để thực hiện 1 nhiệm vụ cụ thể
+2. function tenHam(thamSo1: kieuDuLieu1): &lt;void&gt;
+Hàm + tên + tham số truyền vào + kiểu dữ liệu là void</t>
+  </si>
+  <si>
+    <t>Biến ( let, const, var )</t>
+  </si>
+  <si>
+    <t>1. Nó lưu trữ các dữ liệu mà sau đó ta có thể dùng để truy xuất và sử dụng.
+2. Có 3 từ khóa để khai báo biến:
+   + Let: khai báo biến với phạm vi khối
+   + Var: khai báo biến với phạm vi của hàm 
+   + Const: khai báo 1 hằng số, giá trị của nó không thay đổi sau khi được gián.</t>
   </si>
 </sst>
 </file>
@@ -891,6 +920,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -914,15 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,20 +1282,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1324,9 +1353,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1384,9 +1413,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1440,9 +1469,9 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1563,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6AAEBD-9E9B-4990-933B-CA9A1FE75679}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D14:D16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,29 +1603,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1612,7 +1641,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1634,7 +1663,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1648,15 +1677,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="J8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1681,7 +1710,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
@@ -1695,19 +1724,19 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
@@ -1721,7 +1750,7 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
@@ -1735,7 +1764,7 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
@@ -1749,7 +1778,7 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
@@ -1763,7 +1792,213 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFB6193-1114-4CE8-9A5E-176BE8024C50}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
